--- a/Assets/Scripts/HH/Quest/QuestTable.xlsx
+++ b/Assets/Scripts/HH/Quest/QuestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade\Assets\Scripts\HH\Quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E77CF5-009D-430A-97DD-DCCFAC9E5A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA59F4D-ADDC-4350-81DD-3ECFC3919E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1545" windowWidth="13890" windowHeight="11385" xr2:uid="{D7B09D39-F076-47B8-9C94-38323AFFEA98}"/>
+    <workbookView xWindow="10950" yWindow="4215" windowWidth="13890" windowHeight="11385" xr2:uid="{D7B09D39-F076-47B8-9C94-38323AFFEA98}"/>
   </bookViews>
   <sheets>
     <sheet name="quest" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
